--- a/ocms/src/test/resources/DownloadedFiles/VB Enrollment Flag (2).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/VB Enrollment Flag (2).xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">bengteth\administrator</t>
   </si>
   <si>
-    <t xml:space="preserve">05/11/2019 15:25:53</t>
+    <t xml:space="preserve">11/11/2019 14:39:17</t>
   </si>
   <si>
     <t xml:space="preserve">647577</t>

--- a/ocms/src/test/resources/DownloadedFiles/VB Enrollment Flag (2).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/VB Enrollment Flag (2).xlsx
@@ -43,10 +43,10 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">QATETHERFI\Administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/08/2021 12:32:51</t>
+    <t xml:space="preserve">qatetherfi\administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/08/2021 21:15:58</t>
   </si>
   <si>
     <t xml:space="preserve">647577</t>
